--- a/sgtpy/database/saftgamma_database.xlsx
+++ b/sgtpy/database/saftgamma_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dfs\APPS\CDI\rm-sgtpy\sgtpy\sgtpy\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3841431F-1511-4CFB-A80F-76BBD578DDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96F6B1-694F-4735-A30B-14CED77E25BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3960" yWindow="-16320" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,33 @@
     <sheet name="unlikeasso_kl" sheetId="3" r:id="rId3"/>
     <sheet name="secondmie" sheetId="4" r:id="rId4"/>
     <sheet name="secondasso" sheetId="5" r:id="rId5"/>
+    <sheet name="aux" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="98">
+  <si>
+    <t>groups</t>
+  </si>
   <si>
     <t>vk*</t>
   </si>
@@ -63,9 +83,6 @@
   </si>
   <si>
     <t>mw_kk</t>
-  </si>
-  <si>
-    <t>groups</t>
   </si>
   <si>
     <t>CH3</t>
@@ -242,6 +259,9 @@
     <t>[CH2][OCH2]</t>
   </si>
   <si>
+    <t>aC</t>
+  </si>
+  <si>
     <t>group_k</t>
   </si>
   <si>
@@ -299,49 +319,77 @@
     <t>R1CH3N[CH2 CH2OH]</t>
   </si>
   <si>
-    <t>aC</t>
+    <t>rendimento extrato</t>
+  </si>
+  <si>
+    <t>fator</t>
+  </si>
+  <si>
+    <t>sigma_kl</t>
+  </si>
+  <si>
+    <t>desejado</t>
+  </si>
+  <si>
+    <t>invertido</t>
+  </si>
+  <si>
+    <t>TRANSFERE PARA O CÁLCULO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA61A"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -371,22 +419,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFAA61A"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,44 +536,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -496,9 +623,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -554,221 +681,200 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -3144,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>57.027240000000013</v>
+        <v>57.027239999999999</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3325,34 +3431,34 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" s="2">
-        <v>0.41227854000000003</v>
+        <v>0.259171293992072</v>
       </c>
       <c r="D60" s="3">
-        <v>2.7148981999999999</v>
-      </c>
-      <c r="E60" s="5">
-        <v>691.78261399999997</v>
-      </c>
-      <c r="F60" s="4">
-        <v>10.7538538</v>
-      </c>
-      <c r="G60">
+        <v>3.4372507486439399</v>
+      </c>
+      <c r="E60" s="4">
+        <v>451.46596028607598</v>
+      </c>
+      <c r="F60" s="5">
+        <v>26.633456750374101</v>
+      </c>
+      <c r="G60" s="6">
         <v>6</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3367,40 +3473,41 @@
         <v>12.0107</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H61" s="6"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial Black"&amp;11&amp;K737373PÚBLICA</oddFooter>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Arial Black,Regular"PÚBLICA_x000D_&amp;1#&amp;"Arial Black"&amp;11&amp;K737373PÚBLICA</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D346"/>
+  <dimension ref="A1:F346"/>
   <sheetViews>
-    <sheetView topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="D348" sqref="D348"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1022" width="8.6640625" customWidth="1"/>
+    <col min="1023" max="1025" width="11.5546875"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3414,7 +3521,7 @@
         <v>350.77</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3428,7 +3535,7 @@
         <v>387.48</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3442,7 +3549,7 @@
         <v>339.91</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3456,21 +3563,21 @@
         <v>305.81</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6">
-        <v>305.81</v>
+      <c r="B6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1061.70154513339</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3484,7 +3591,7 @@
         <v>396.91</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3498,7 +3605,7 @@
         <v>455.85</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3512,7 +3619,7 @@
         <v>333.48</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3526,7 +3633,7 @@
         <v>252.41</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3540,7 +3647,7 @@
         <v>355.95</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3554,7 +3661,7 @@
         <v>255.99</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3582,7 +3689,7 @@
         <v>402.75</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3638,7 +3745,7 @@
         <v>205.7</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3652,7 +3759,7 @@
         <v>314.67</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3666,7 +3773,7 @@
         <v>333.2</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3680,7 +3787,7 @@
         <v>479.38</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3694,7 +3801,7 @@
         <v>244.15</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3708,7 +3815,7 @@
         <v>530.87</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -3722,7 +3829,7 @@
         <v>462.18</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -3736,7 +3843,7 @@
         <v>583.72</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3750,7 +3857,7 @@
         <v>710</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -3764,7 +3871,7 @@
         <v>281.39999999999998</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3778,7 +3885,7 @@
         <v>358.58</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3792,7 +3899,7 @@
         <v>413.25</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -3806,7 +3913,7 @@
         <v>690.17</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3820,7 +3927,7 @@
         <v>406.97</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3834,10 +3941,10 @@
         <v>761.79</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -3848,10 +3955,10 @@
         <v>462.18</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -3862,10 +3969,10 @@
         <v>255.99</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -3876,10 +3983,10 @@
         <v>370.75</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -3890,10 +3997,10 @@
         <v>647.64</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -3904,10 +4011,10 @@
         <v>344.57</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -3918,10 +4025,10 @@
         <v>301.77</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3932,10 +4039,10 @@
         <v>261.63</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -3946,10 +4053,10 @@
         <v>506.21</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -3960,10 +4067,10 @@
         <v>300.07</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -3974,24 +4081,25 @@
         <v>415.64</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43">
-        <v>415.64</v>
-      </c>
-      <c r="D43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="8">
+        <v>611.50841401420996</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -4002,10 +4110,10 @@
         <v>454.16</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -4016,10 +4124,10 @@
         <v>345.8</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -4030,10 +4138,10 @@
         <v>386.8</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -4044,10 +4152,10 @@
         <v>459.4</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -4058,7 +4166,7 @@
         <v>469.67</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -4072,7 +4180,7 @@
         <v>413.74</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -4100,7 +4208,7 @@
         <v>498.86</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -4156,7 +4264,7 @@
         <v>276.45</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -4170,7 +4278,7 @@
         <v>396.27</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -4184,7 +4292,7 @@
         <v>423.17</v>
       </c>
       <c r="D57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -4198,7 +4306,7 @@
         <v>517.64</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -4212,7 +4320,7 @@
         <v>348.39</v>
       </c>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -4226,7 +4334,7 @@
         <v>394.58</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -4240,7 +4348,7 @@
         <v>348.3</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -4254,7 +4362,7 @@
         <v>429.49</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -4268,7 +4376,7 @@
         <v>508.54</v>
       </c>
       <c r="D63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -4282,7 +4390,7 @@
         <v>286.58</v>
       </c>
       <c r="D64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -4296,7 +4404,7 @@
         <v>569.17999999999995</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -4310,7 +4418,7 @@
         <v>484.02</v>
       </c>
       <c r="D66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -4324,7 +4432,7 @@
         <v>522.57000000000005</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -4338,7 +4446,7 @@
         <v>309.95</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -4352,7 +4460,7 @@
         <v>893.5</v>
       </c>
       <c r="D69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -4366,7 +4474,7 @@
         <v>348.3</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -4380,7 +4488,7 @@
         <v>413.74</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -4394,7 +4502,7 @@
         <v>323.72000000000003</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -4408,7 +4516,7 @@
         <v>347.75</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -4422,7 +4530,7 @@
         <v>431.49</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -4436,7 +4544,7 @@
         <v>408.05</v>
       </c>
       <c r="D75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -4450,7 +4558,7 @@
         <v>353.78</v>
       </c>
       <c r="D76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -4464,7 +4572,7 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -4478,7 +4586,7 @@
         <v>441.43</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -4486,13 +4594,13 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79">
-        <v>441.43</v>
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -4506,7 +4614,7 @@
         <v>65.41</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -4520,7 +4628,7 @@
         <v>67.510000000000005</v>
       </c>
       <c r="D81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -4534,7 +4642,7 @@
         <v>426.76</v>
       </c>
       <c r="D82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -4548,7 +4656,7 @@
         <v>502.99</v>
       </c>
       <c r="D83" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -4562,7 +4670,7 @@
         <v>570.45000000000005</v>
       </c>
       <c r="D84" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -4576,7 +4684,7 @@
         <v>504.99</v>
       </c>
       <c r="D85" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -4590,7 +4698,7 @@
         <v>637.29</v>
       </c>
       <c r="D86" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -4604,7 +4712,7 @@
         <v>353.65</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -4618,7 +4726,7 @@
         <v>275.75</v>
       </c>
       <c r="D88" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -4632,7 +4740,7 @@
         <v>198.08</v>
       </c>
       <c r="D89" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -4646,7 +4754,7 @@
         <v>329.22</v>
       </c>
       <c r="D90" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -4660,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -4674,7 +4782,7 @@
         <v>378.72</v>
       </c>
       <c r="D92" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -4688,7 +4796,7 @@
         <v>504.99</v>
       </c>
       <c r="D93" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -4702,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -4716,7 +4824,7 @@
         <v>878.88</v>
       </c>
       <c r="D95" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -4730,7 +4838,7 @@
         <v>321.91000000000003</v>
       </c>
       <c r="D96" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -4744,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -4758,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -4772,7 +4880,7 @@
         <v>420.82</v>
       </c>
       <c r="D99" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4786,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -4800,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -4814,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -4822,13 +4930,13 @@
         <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="C103" s="8">
+        <v>751.41534778724497</v>
       </c>
       <c r="D103" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -4842,7 +4950,7 @@
         <v>416.69</v>
       </c>
       <c r="D104" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -4856,7 +4964,7 @@
         <v>429.16</v>
       </c>
       <c r="D105" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -4884,7 +4992,7 @@
         <v>333.11</v>
       </c>
       <c r="D107" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -4912,7 +5020,7 @@
         <v>386.05</v>
       </c>
       <c r="D109" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -4926,7 +5034,7 @@
         <v>512.16</v>
       </c>
       <c r="D110" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -4940,7 +5048,7 @@
         <v>471.23</v>
       </c>
       <c r="D111" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -4954,7 +5062,7 @@
         <v>448.75</v>
       </c>
       <c r="D112" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -4965,10 +5073,10 @@
         <v>45</v>
       </c>
       <c r="C113" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D113" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -4996,7 +5104,7 @@
         <v>340.7</v>
       </c>
       <c r="D115" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -5010,7 +5118,7 @@
         <v>549.72</v>
       </c>
       <c r="D116" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -5032,13 +5140,13 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>91</v>
-      </c>
-      <c r="C118">
-        <v>416.69</v>
+        <v>72</v>
+      </c>
+      <c r="C118" s="8">
+        <v>1876.0004567584999</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -5052,7 +5160,7 @@
         <v>462.04</v>
       </c>
       <c r="D119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -5066,7 +5174,7 @@
         <v>473.66</v>
       </c>
       <c r="D120" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -5080,7 +5188,7 @@
         <v>394.83</v>
       </c>
       <c r="D121" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -5094,7 +5202,7 @@
         <v>329.03</v>
       </c>
       <c r="D122" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -5108,7 +5216,7 @@
         <v>434.37</v>
       </c>
       <c r="D123" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -5122,7 +5230,7 @@
         <v>357.91</v>
       </c>
       <c r="D124" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -5133,10 +5241,10 @@
         <v>45</v>
       </c>
       <c r="C125" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D125" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -5150,7 +5258,7 @@
         <v>473.66</v>
       </c>
       <c r="D126" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -5164,7 +5272,7 @@
         <v>168.69</v>
       </c>
       <c r="D127" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -5186,13 +5294,13 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>91</v>
-      </c>
-      <c r="C129">
-        <v>429.16</v>
+        <v>72</v>
+      </c>
+      <c r="C129" t="s">
+        <v>77</v>
       </c>
       <c r="D129" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -5206,7 +5314,7 @@
         <v>599.28</v>
       </c>
       <c r="D130" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -5220,7 +5328,7 @@
         <v>459.22</v>
       </c>
       <c r="D131" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -5234,7 +5342,7 @@
         <v>314.02999999999997</v>
       </c>
       <c r="D132" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -5248,7 +5356,7 @@
         <v>436.14</v>
       </c>
       <c r="D133" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -5262,7 +5370,7 @@
         <v>138.38999999999999</v>
       </c>
       <c r="D134" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -5276,7 +5384,7 @@
         <v>599.28</v>
       </c>
       <c r="D135" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -5290,7 +5398,7 @@
         <v>275.75</v>
       </c>
       <c r="D136" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -5304,7 +5412,7 @@
         <v>288.2</v>
       </c>
       <c r="D137" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -5332,7 +5440,7 @@
         <v>375.51</v>
       </c>
       <c r="D139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -5346,7 +5454,7 @@
         <v>449.83</v>
       </c>
       <c r="D140" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -5360,7 +5468,7 @@
         <v>203.76</v>
       </c>
       <c r="D141" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -5374,7 +5482,7 @@
         <v>398.35</v>
       </c>
       <c r="D142" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -5388,7 +5496,7 @@
         <v>453.13</v>
       </c>
       <c r="D143" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -5402,7 +5510,7 @@
         <v>437.75</v>
       </c>
       <c r="D144" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -5416,7 +5524,7 @@
         <v>818.79</v>
       </c>
       <c r="D145" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -5444,7 +5552,7 @@
         <v>625.16999999999996</v>
       </c>
       <c r="D147" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -5458,7 +5566,7 @@
         <v>414.91</v>
       </c>
       <c r="D148" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -5472,7 +5580,7 @@
         <v>540.83000000000004</v>
       </c>
       <c r="D149" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -5486,7 +5594,7 @@
         <v>1195.3</v>
       </c>
       <c r="D150" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -5500,7 +5608,7 @@
         <v>453.13</v>
       </c>
       <c r="D151" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -5514,7 +5622,7 @@
         <v>352.19</v>
       </c>
       <c r="D152" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -5528,7 +5636,7 @@
         <v>498.6</v>
       </c>
       <c r="D153" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -5556,7 +5664,7 @@
         <v>269.68</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -5570,7 +5678,7 @@
         <v>376.57</v>
       </c>
       <c r="D156" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,7 +5692,7 @@
         <v>554.5</v>
       </c>
       <c r="D157" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -5598,7 +5706,7 @@
         <v>332.15</v>
       </c>
       <c r="D158" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -5612,7 +5720,7 @@
         <v>549.42999999999995</v>
       </c>
       <c r="D159" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -5626,7 +5734,7 @@
         <v>650.24</v>
       </c>
       <c r="D160" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -5640,7 +5748,7 @@
         <v>605.45000000000005</v>
       </c>
       <c r="D161" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -5654,7 +5762,7 @@
         <v>536.66</v>
       </c>
       <c r="D162" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -5668,7 +5776,7 @@
         <v>846.19</v>
       </c>
       <c r="D163" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -5682,7 +5790,7 @@
         <v>321.70999999999998</v>
       </c>
       <c r="D164" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,7 +5804,7 @@
         <v>486.88</v>
       </c>
       <c r="D165" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -5710,7 +5818,7 @@
         <v>750.06</v>
       </c>
       <c r="D166" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -5724,7 +5832,7 @@
         <v>389.9</v>
       </c>
       <c r="D167" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -5738,7 +5846,7 @@
         <v>564.85</v>
       </c>
       <c r="D168" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -5746,13 +5854,13 @@
         <v>24</v>
       </c>
       <c r="B169" t="s">
-        <v>91</v>
-      </c>
-      <c r="C169">
-        <v>331.61</v>
+        <v>72</v>
+      </c>
+      <c r="C169" t="s">
+        <v>77</v>
       </c>
       <c r="D169" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -5766,7 +5874,7 @@
         <v>393.71</v>
       </c>
       <c r="D170" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -5780,7 +5888,7 @@
         <v>289.76</v>
       </c>
       <c r="D171" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -5794,7 +5902,7 @@
         <v>488.18</v>
       </c>
       <c r="D172" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,7 +5916,7 @@
         <v>609.87</v>
       </c>
       <c r="D173" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -5819,10 +5927,10 @@
         <v>45</v>
       </c>
       <c r="C174" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D174" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -5833,10 +5941,10 @@
         <v>55</v>
       </c>
       <c r="C175" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D175" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -5858,13 +5966,13 @@
         <v>25</v>
       </c>
       <c r="B177" t="s">
-        <v>91</v>
-      </c>
-      <c r="C177">
-        <v>333.11</v>
+        <v>72</v>
+      </c>
+      <c r="C177" t="s">
+        <v>77</v>
       </c>
       <c r="D177" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -5878,7 +5986,7 @@
         <v>547.44000000000005</v>
       </c>
       <c r="D178" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -5892,7 +6000,7 @@
         <v>287.26</v>
       </c>
       <c r="D179" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -5906,7 +6014,7 @@
         <v>340.81</v>
       </c>
       <c r="D180" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,7 +6028,7 @@
         <v>338.47</v>
       </c>
       <c r="D181" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5934,7 +6042,7 @@
         <v>340.81</v>
       </c>
       <c r="D182" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -5948,7 +6056,7 @@
         <v>516.30999999999995</v>
       </c>
       <c r="D183" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -5962,7 +6070,7 @@
         <v>389.74</v>
       </c>
       <c r="D184" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -5976,7 +6084,7 @@
         <v>316.60000000000002</v>
       </c>
       <c r="D185" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -6018,7 +6126,7 @@
         <v>490.95</v>
       </c>
       <c r="D188" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -6032,7 +6140,7 @@
         <v>868.11</v>
       </c>
       <c r="D189" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -6046,7 +6154,7 @@
         <v>331.78</v>
       </c>
       <c r="D190" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -6060,7 +6168,7 @@
         <v>809.96</v>
       </c>
       <c r="D191" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -6068,13 +6176,13 @@
         <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>91</v>
-      </c>
-      <c r="C192">
-        <v>357.78</v>
-      </c>
-      <c r="D192">
-        <v>38.64</v>
+        <v>72</v>
+      </c>
+      <c r="C192" t="s">
+        <v>77</v>
+      </c>
+      <c r="D192" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -6088,7 +6196,7 @@
         <v>278.45</v>
       </c>
       <c r="D193" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -6102,7 +6210,7 @@
         <v>175.41</v>
       </c>
       <c r="D194" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -6116,7 +6224,7 @@
         <v>226.38</v>
       </c>
       <c r="D195" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -6130,7 +6238,7 @@
         <v>375.92</v>
       </c>
       <c r="D196" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -6144,7 +6252,7 @@
         <v>353.37</v>
       </c>
       <c r="D197" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -6158,7 +6266,7 @@
         <v>479.16</v>
       </c>
       <c r="D198" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -6172,7 +6280,7 @@
         <v>358.55</v>
       </c>
       <c r="D199" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -6256,7 +6364,7 @@
         <v>360.7</v>
       </c>
       <c r="D205" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -6326,7 +6434,7 @@
         <v>391.04</v>
       </c>
       <c r="D210" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -6340,7 +6448,7 @@
         <v>1023.1</v>
       </c>
       <c r="D211" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -6354,7 +6462,7 @@
         <v>539.67999999999995</v>
       </c>
       <c r="D212" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -6368,7 +6476,7 @@
         <v>376.25</v>
       </c>
       <c r="D213" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -6382,7 +6490,7 @@
         <v>354.23</v>
       </c>
       <c r="D214" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -6396,7 +6504,7 @@
         <v>2235.1</v>
       </c>
       <c r="D215" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -6410,7 +6518,7 @@
         <v>1460.8</v>
       </c>
       <c r="D216" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -6424,7 +6532,7 @@
         <v>1047</v>
       </c>
       <c r="D217" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -6438,7 +6546,7 @@
         <v>840.44</v>
       </c>
       <c r="D218" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -6466,7 +6574,7 @@
         <v>134.41</v>
       </c>
       <c r="D220" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -6480,7 +6588,7 @@
         <v>30.571000000000002</v>
       </c>
       <c r="D221" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -6494,7 +6602,7 @@
         <v>95.406000000000006</v>
       </c>
       <c r="D222" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -6508,7 +6616,7 @@
         <v>112.01</v>
       </c>
       <c r="D223" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -6522,7 +6630,7 @@
         <v>142.66</v>
       </c>
       <c r="D224" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -6536,7 +6644,7 @@
         <v>171.61</v>
       </c>
       <c r="D225" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -6550,7 +6658,7 @@
         <v>142.57</v>
       </c>
       <c r="D226" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -6564,7 +6672,7 @@
         <v>128.03</v>
       </c>
       <c r="D227" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -6578,7 +6686,7 @@
         <v>270</v>
       </c>
       <c r="D228" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -6592,7 +6700,7 @@
         <v>161.55000000000001</v>
       </c>
       <c r="D229" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -6606,7 +6714,7 @@
         <v>317.43</v>
       </c>
       <c r="D230" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -6634,7 +6742,7 @@
         <v>233.21</v>
       </c>
       <c r="D232" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -6676,7 +6784,7 @@
         <v>398.1</v>
       </c>
       <c r="D235" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -6704,7 +6812,7 @@
         <v>210.13</v>
       </c>
       <c r="D237" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -6718,7 +6826,7 @@
         <v>182.18</v>
       </c>
       <c r="D238" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -6802,7 +6910,7 @@
         <v>294.99</v>
       </c>
       <c r="D244" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -6830,7 +6938,7 @@
         <v>189.86</v>
       </c>
       <c r="D246" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -6844,7 +6952,7 @@
         <v>371.59</v>
       </c>
       <c r="D247" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -6858,7 +6966,7 @@
         <v>327.31</v>
       </c>
       <c r="D248" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -6872,7 +6980,7 @@
         <v>283.77999999999997</v>
       </c>
       <c r="D249" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -6886,7 +6994,7 @@
         <v>241.94</v>
       </c>
       <c r="D250" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -6900,7 +7008,7 @@
         <v>188.61</v>
       </c>
       <c r="D251" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -6914,7 +7022,7 @@
         <v>260.99</v>
       </c>
       <c r="D252" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -6928,7 +7036,7 @@
         <v>784.51</v>
       </c>
       <c r="D253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -6936,13 +7044,13 @@
         <v>32</v>
       </c>
       <c r="B254" t="s">
-        <v>91</v>
-      </c>
-      <c r="C254">
-        <v>386.05</v>
+        <v>72</v>
+      </c>
+      <c r="C254" t="s">
+        <v>77</v>
       </c>
       <c r="D254" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -6956,7 +7064,7 @@
         <v>389.23</v>
       </c>
       <c r="D255" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -6984,7 +7092,7 @@
         <v>313.25</v>
       </c>
       <c r="D257" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -6998,7 +7106,7 @@
         <v>440.99</v>
       </c>
       <c r="D258" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -7012,7 +7120,7 @@
         <v>799.66</v>
       </c>
       <c r="D259" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -7026,7 +7134,7 @@
         <v>486.62</v>
       </c>
       <c r="D260" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -7054,7 +7162,7 @@
         <v>440.99</v>
       </c>
       <c r="D262" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -7068,7 +7176,7 @@
         <v>656.8</v>
       </c>
       <c r="D263" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -7104,13 +7212,13 @@
         <v>33</v>
       </c>
       <c r="B266" t="s">
-        <v>91</v>
-      </c>
-      <c r="C266">
-        <v>512.16</v>
+        <v>72</v>
+      </c>
+      <c r="C266" t="s">
+        <v>77</v>
       </c>
       <c r="D266" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -7124,7 +7232,7 @@
         <v>245.07</v>
       </c>
       <c r="D267" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -7138,7 +7246,7 @@
         <v>762.86</v>
       </c>
       <c r="D268" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -7180,7 +7288,7 @@
         <v>381.98</v>
       </c>
       <c r="D271" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -7194,7 +7302,7 @@
         <v>101.61</v>
       </c>
       <c r="D272" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -7208,7 +7316,7 @@
         <v>812.26</v>
       </c>
       <c r="D273" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -7222,7 +7330,7 @@
         <v>609.87</v>
       </c>
       <c r="D274" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -7230,13 +7338,13 @@
         <v>40</v>
       </c>
       <c r="B275" t="s">
-        <v>91</v>
-      </c>
-      <c r="C275">
-        <v>471.23</v>
+        <v>72</v>
+      </c>
+      <c r="C275" s="8">
+        <v>280.77781507997901</v>
       </c>
       <c r="D275" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -7250,7 +7358,7 @@
         <v>455.68</v>
       </c>
       <c r="D276" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -7264,7 +7372,7 @@
         <v>941.03</v>
       </c>
       <c r="D277" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -7292,7 +7400,7 @@
         <v>246.61</v>
       </c>
       <c r="D279" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -7306,7 +7414,7 @@
         <v>37.478999999999999</v>
       </c>
       <c r="D280" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -7320,7 +7428,7 @@
         <v>66.42</v>
       </c>
       <c r="D281" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -7334,7 +7442,7 @@
         <v>51.094999999999999</v>
       </c>
       <c r="D282" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -7348,7 +7456,7 @@
         <v>70.545000000000002</v>
       </c>
       <c r="D283" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -7362,7 +7470,7 @@
         <v>65.8</v>
       </c>
       <c r="D284" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -7376,7 +7484,7 @@
         <v>59.652000000000001</v>
       </c>
       <c r="D285" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -7390,7 +7498,7 @@
         <v>28.111000000000001</v>
       </c>
       <c r="D286" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -7404,7 +7512,7 @@
         <v>60.475999999999999</v>
       </c>
       <c r="D287" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -7418,7 +7526,7 @@
         <v>53.609000000000002</v>
       </c>
       <c r="D288" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -7432,7 +7540,7 @@
         <v>181.61</v>
       </c>
       <c r="D289" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -7446,7 +7554,7 @@
         <v>61.781999999999996</v>
       </c>
       <c r="D290" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -7460,7 +7568,7 @@
         <v>130.28</v>
       </c>
       <c r="D291" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -7474,7 +7582,7 @@
         <v>9.1460000000000008</v>
       </c>
       <c r="D292" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -7488,7 +7596,7 @@
         <v>7.6875</v>
       </c>
       <c r="D293" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -7502,7 +7610,7 @@
         <v>8.2898999999999994</v>
       </c>
       <c r="D294" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -7516,7 +7624,7 @@
         <v>7.1798000000000002</v>
       </c>
       <c r="D295" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -7530,7 +7638,7 @@
         <v>5.8745000000000003</v>
       </c>
       <c r="D296" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -7544,7 +7652,7 @@
         <v>27.890999999999998</v>
       </c>
       <c r="D297" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -7558,7 +7666,7 @@
         <v>22.89</v>
       </c>
       <c r="D298" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -7572,7 +7680,7 @@
         <v>27.937000000000001</v>
       </c>
       <c r="D299" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -7586,7 +7694,7 @@
         <v>24.988</v>
       </c>
       <c r="D300" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -7600,7 +7708,7 @@
         <v>21.381</v>
       </c>
       <c r="D301" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -7614,7 +7722,7 @@
         <v>9.9114000000000004</v>
       </c>
       <c r="D302" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -7628,7 +7736,7 @@
         <v>54.72</v>
       </c>
       <c r="D303" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -7642,7 +7750,7 @@
         <v>43.679000000000002</v>
       </c>
       <c r="D304" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -7656,7 +7764,7 @@
         <v>61.006999999999998</v>
       </c>
       <c r="D305" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -7670,7 +7778,7 @@
         <v>56.588999999999999</v>
       </c>
       <c r="D306" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -7684,7 +7792,7 @@
         <v>50.96</v>
       </c>
       <c r="D307" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -7698,7 +7806,7 @@
         <v>24.044</v>
       </c>
       <c r="D308" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -7712,7 +7820,7 @@
         <v>67.927000000000007</v>
       </c>
       <c r="D309" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -7726,7 +7834,7 @@
         <v>53.631</v>
       </c>
       <c r="D310" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -7740,7 +7848,7 @@
         <v>78.25</v>
       </c>
       <c r="D311" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -7754,7 +7862,7 @@
         <v>73.484999999999999</v>
       </c>
       <c r="D312" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -7768,7 +7876,7 @@
         <v>67.338999999999999</v>
       </c>
       <c r="D313" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -7782,7 +7890,7 @@
         <v>33.261000000000003</v>
       </c>
       <c r="D314" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -7796,7 +7904,7 @@
         <v>28.048999999999999</v>
       </c>
       <c r="D315" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -7810,7 +7918,7 @@
         <v>29.599</v>
       </c>
       <c r="D316" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -7824,7 +7932,7 @@
         <v>25.497</v>
       </c>
       <c r="D317" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -7838,7 +7946,7 @@
         <v>20.706</v>
       </c>
       <c r="D318" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -7852,7 +7960,7 @@
         <v>77.225999999999999</v>
       </c>
       <c r="D319" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -7866,7 +7974,7 @@
         <v>63.569000000000003</v>
       </c>
       <c r="D320" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -7880,7 +7988,7 @@
         <v>76.930999999999997</v>
       </c>
       <c r="D321" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -7894,7 +8002,7 @@
         <v>68.641999999999996</v>
       </c>
       <c r="D322" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -7908,7 +8016,7 @@
         <v>58.533000000000001</v>
       </c>
       <c r="D323" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -7922,7 +8030,7 @@
         <v>90.491</v>
       </c>
       <c r="D324" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -7936,7 +8044,7 @@
         <v>73.566999999999993</v>
       </c>
       <c r="D325" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -7950,7 +8058,7 @@
         <v>95.8</v>
       </c>
       <c r="D326" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -7964,7 +8072,7 @@
         <v>87.128</v>
       </c>
       <c r="D327" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -7978,7 +8086,7 @@
         <v>76.316000000000003</v>
       </c>
       <c r="D328" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -7992,7 +8100,7 @@
         <v>109.85</v>
       </c>
       <c r="D329" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -8006,7 +8114,7 @@
         <v>88.21</v>
       </c>
       <c r="D330" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -8020,7 +8128,7 @@
         <v>122.04</v>
       </c>
       <c r="D331" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -8034,7 +8142,7 @@
         <v>112.83</v>
       </c>
       <c r="D332" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -8048,7 +8156,7 @@
         <v>101.14</v>
       </c>
       <c r="D333" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -8062,7 +8170,7 @@
         <v>61.981999999999999</v>
       </c>
       <c r="D334" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -8076,7 +8184,7 @@
         <v>24.277000000000001</v>
       </c>
       <c r="D335" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -8090,7 +8198,7 @@
         <v>123.21</v>
       </c>
       <c r="D336" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -8104,7 +8212,7 @@
         <v>44.52</v>
       </c>
       <c r="D337" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -8118,7 +8226,7 @@
         <v>21.265000000000001</v>
       </c>
       <c r="D338" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -8132,7 +8240,7 @@
         <v>75.239000000000004</v>
       </c>
       <c r="D339" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -8146,7 +8254,7 @@
         <v>220.37</v>
       </c>
       <c r="D340" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -8154,13 +8262,13 @@
         <v>67</v>
       </c>
       <c r="B341" t="s">
-        <v>91</v>
-      </c>
-      <c r="C341">
-        <v>340.7</v>
+        <v>72</v>
+      </c>
+      <c r="C341" t="s">
+        <v>77</v>
       </c>
       <c r="D341" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -8174,7 +8282,7 @@
         <v>102.98</v>
       </c>
       <c r="D342" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -8210,13 +8318,13 @@
         <v>68</v>
       </c>
       <c r="B345" t="s">
-        <v>91</v>
-      </c>
-      <c r="C345">
-        <v>549.72</v>
+        <v>72</v>
+      </c>
+      <c r="C345" t="s">
+        <v>77</v>
       </c>
       <c r="D345" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -8224,20 +8332,20 @@
         <v>69</v>
       </c>
       <c r="B346" t="s">
-        <v>91</v>
-      </c>
-      <c r="C346">
-        <v>426.72</v>
-      </c>
-      <c r="D346">
-        <v>18.03</v>
+        <v>72</v>
+      </c>
+      <c r="C346" t="s">
+        <v>77</v>
+      </c>
+      <c r="D346" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial Black"&amp;11&amp;K737373PÚBLICA</oddFooter>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Arial Black,Regular"PÚBLICA_x000D_&amp;1#&amp;"Arial Black"&amp;11&amp;K737373PÚBLICA</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8246,28 +8354,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="C1:C1048576 A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8275,13 +8388,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>563.55999999999995</v>
@@ -8295,13 +8408,13 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>563.55999999999995</v>
@@ -8315,13 +8428,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>3961.5</v>
@@ -8335,13 +8448,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>563.55999999999995</v>
@@ -8355,13 +8468,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>563.55999999999995</v>
@@ -8375,13 +8488,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>3961.5</v>
@@ -8395,13 +8508,13 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>563.55999999999995</v>
@@ -8415,13 +8528,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>563.55999999999995</v>
@@ -8435,13 +8548,13 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10">
         <v>6427.9</v>
@@ -8455,13 +8568,13 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>1451.8</v>
@@ -8475,13 +8588,13 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <v>1252.5999999999999</v>
@@ -8495,13 +8608,13 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>2567.6999999999998</v>
@@ -8515,13 +8628,13 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <v>1062.0999999999999</v>
@@ -8535,13 +8648,13 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15">
         <v>997.89</v>
@@ -8555,13 +8668,13 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>3238.4</v>
@@ -8575,13 +8688,13 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17">
         <v>1451.8</v>
@@ -8595,13 +8708,13 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18">
         <v>1252.5999999999999</v>
@@ -8615,13 +8728,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19">
         <v>2036</v>
@@ -8635,13 +8748,13 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20">
         <v>980.2</v>
@@ -8655,13 +8768,13 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21">
         <v>1588.7</v>
@@ -8675,13 +8788,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22">
         <v>417.24</v>
@@ -8695,13 +8808,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23">
         <v>1386.8</v>
@@ -8715,13 +8828,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24">
         <v>1492.9</v>
@@ -8735,13 +8848,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25">
         <v>1177.4000000000001</v>
@@ -8755,13 +8868,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E26">
         <v>1844.8</v>
@@ -8775,13 +8888,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27">
         <v>686.93</v>
@@ -8795,13 +8908,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E28">
         <v>1323.1</v>
@@ -8815,13 +8928,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <v>1186.9000000000001</v>
@@ -8835,13 +8948,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30">
         <v>2162.1999999999998</v>
@@ -8855,13 +8968,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31">
         <v>1053.0999999999999</v>
@@ -8875,13 +8988,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E32">
         <v>2732.9</v>
@@ -8895,13 +9008,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E33">
         <v>2208.9</v>
@@ -8915,13 +9028,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E34">
         <v>1245.8</v>
@@ -8935,13 +9048,13 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E35">
         <v>1920.1</v>
@@ -8955,13 +9068,13 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
         <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E36">
         <v>1772.3</v>
@@ -8975,13 +9088,13 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <v>1985.4</v>
@@ -8995,13 +9108,13 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E38">
         <v>1993.5</v>
@@ -9015,13 +9128,13 @@
         <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39">
         <v>1993.5</v>
@@ -9035,13 +9148,13 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40">
         <v>1398.1</v>
@@ -9055,13 +9168,13 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41">
         <v>500</v>
@@ -9075,13 +9188,13 @@
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E42">
         <v>2225.6</v>
@@ -9095,13 +9208,13 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E43">
         <v>621.67999999999995</v>
@@ -9115,13 +9228,13 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E44">
         <v>2153.1999999999998</v>
@@ -9135,13 +9248,13 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E45">
         <v>2289.1</v>
@@ -9155,13 +9268,13 @@
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E46">
         <v>2140.9</v>
@@ -9175,13 +9288,13 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
         <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E47">
         <v>1988.3</v>
@@ -9195,13 +9308,13 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>1460</v>
@@ -9215,13 +9328,13 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>1064.5</v>
@@ -9235,13 +9348,13 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50">
         <v>3890.4</v>
@@ -9255,13 +9368,13 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
         <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E51">
         <v>2783.7</v>
@@ -9275,13 +9388,13 @@
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E52">
         <v>1701</v>
@@ -9295,13 +9408,13 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <v>2838.4</v>
@@ -9315,13 +9428,13 @@
         <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E54">
         <v>5203.7</v>
@@ -9335,13 +9448,13 @@
         <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
         <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>563.55999999999995</v>
@@ -9355,13 +9468,13 @@
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
         <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>2500</v>
@@ -9375,13 +9488,13 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E57">
         <v>1798.2</v>
@@ -9395,13 +9508,13 @@
         <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E58">
         <v>563.55999999999995</v>
@@ -9415,13 +9528,13 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
         <v>43</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E59">
         <v>5903.8</v>
@@ -9435,13 +9548,13 @@
         <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E60">
         <v>5477.7</v>
@@ -9455,13 +9568,13 @@
         <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E61">
         <v>4115.3999999999996</v>
@@ -9475,13 +9588,13 @@
         <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
         <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E62">
         <v>1985.4</v>
@@ -9495,13 +9608,13 @@
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
         <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E63">
         <v>2783.7</v>
@@ -9515,13 +9628,13 @@
         <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
         <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E64">
         <v>1492</v>
@@ -9535,13 +9648,13 @@
         <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
         <v>60</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E65">
         <v>802.21</v>
@@ -9555,13 +9668,13 @@
         <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E66">
         <v>2900</v>
@@ -9575,13 +9688,13 @@
         <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
         <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E67">
         <v>1606.6</v>
@@ -9595,13 +9708,13 @@
         <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
         <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E68">
         <v>2350</v>
@@ -9615,13 +9728,13 @@
         <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
         <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E69">
         <v>1398.1</v>
@@ -9635,13 +9748,13 @@
         <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
         <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E70">
         <v>882.05</v>
@@ -9655,13 +9768,13 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
         <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E71">
         <v>882.05</v>
@@ -9675,13 +9788,13 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
         <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E72">
         <v>5192.5</v>
@@ -9695,13 +9808,13 @@
         <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E73">
         <v>2062.1</v>
@@ -9715,13 +9828,13 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
         <v>67</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E74">
         <v>1400.7</v>
@@ -9735,13 +9848,13 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
         <v>67</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E75">
         <v>871.46</v>
@@ -9755,13 +9868,13 @@
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E76">
         <v>2346</v>
@@ -9775,13 +9888,13 @@
         <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E77">
         <v>2346</v>
@@ -9795,13 +9908,13 @@
         <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
         <v>34</v>
       </c>
       <c r="D78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E78">
         <v>4023.9</v>
@@ -9815,13 +9928,13 @@
         <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E79">
         <v>5981.4</v>
@@ -9835,13 +9948,13 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
       </c>
       <c r="D80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E80">
         <v>6012.1</v>
@@ -9855,13 +9968,13 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
         <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E81">
         <v>7420.5</v>
@@ -9875,13 +9988,13 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
         <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E82">
         <v>4270.8</v>
@@ -9895,13 +10008,13 @@
         <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
         <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E83">
         <v>7439.8</v>
@@ -9915,13 +10028,13 @@
         <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E84">
         <v>5696.6</v>
@@ -9935,13 +10048,13 @@
         <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E85">
         <v>6017.9</v>
@@ -9955,13 +10068,13 @@
         <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
         <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E86">
         <v>3388.6</v>
@@ -9975,13 +10088,13 @@
         <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
         <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E87">
         <v>3004.9</v>
@@ -9995,13 +10108,13 @@
         <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C88" t="s">
         <v>43</v>
       </c>
       <c r="D88" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E88">
         <v>2246</v>
@@ -10015,13 +10128,13 @@
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
         <v>43</v>
       </c>
       <c r="D89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E89">
         <v>3870.8</v>
@@ -10035,13 +10148,13 @@
         <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s">
         <v>31</v>
       </c>
       <c r="D90" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E90">
         <v>2161</v>
@@ -10055,13 +10168,13 @@
         <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
         <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E91">
         <v>1282.7</v>
@@ -10075,13 +10188,13 @@
         <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s">
         <v>34</v>
       </c>
       <c r="D92" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E92">
         <v>1354</v>
@@ -10095,13 +10208,13 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s">
         <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E93">
         <v>861.12</v>
@@ -10115,13 +10228,13 @@
         <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
         <v>35</v>
       </c>
       <c r="D94" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E94">
         <v>1477.7</v>
@@ -10135,13 +10248,13 @@
         <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
         <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E95">
         <v>1357.2</v>
@@ -10155,13 +10268,13 @@
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C96" t="s">
         <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E96">
         <v>2097.9</v>
@@ -10175,13 +10288,13 @@
         <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C97" t="s">
         <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E97">
         <v>1464.1</v>
@@ -10195,13 +10308,13 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
         <v>33</v>
       </c>
       <c r="D98" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E98">
         <v>2500</v>
@@ -10215,13 +10328,13 @@
         <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C99" t="s">
         <v>34</v>
       </c>
       <c r="D99" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E99">
         <v>629.88</v>
@@ -10235,13 +10348,13 @@
         <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C100" t="s">
         <v>34</v>
       </c>
       <c r="D100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E100">
         <v>2403.8000000000002</v>
@@ -10255,13 +10368,13 @@
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C101" t="s">
         <v>35</v>
       </c>
       <c r="D101" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E101">
         <v>341.13</v>
@@ -10275,13 +10388,13 @@
         <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C102" t="s">
         <v>35</v>
       </c>
       <c r="D102" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E102">
         <v>1390.1</v>
@@ -10295,13 +10408,13 @@
         <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
         <v>36</v>
       </c>
       <c r="D103" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E103">
         <v>1247.2</v>
@@ -10315,13 +10428,13 @@
         <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s">
         <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E104">
         <v>2182.6999999999998</v>
@@ -10335,13 +10448,13 @@
         <v>32</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C105" t="s">
         <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E105">
         <v>250.03</v>
@@ -10355,13 +10468,13 @@
         <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C106" t="s">
         <v>54</v>
       </c>
       <c r="D106" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E106">
         <v>1247.2</v>
@@ -10375,13 +10488,13 @@
         <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C107" t="s">
         <v>67</v>
       </c>
       <c r="D107" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E107">
         <v>1284.9000000000001</v>
@@ -10395,13 +10508,13 @@
         <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C108" t="s">
         <v>67</v>
       </c>
       <c r="D108" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E108">
         <v>3889.3</v>
@@ -10415,13 +10528,13 @@
         <v>32</v>
       </c>
       <c r="B109" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C109" t="s">
         <v>67</v>
       </c>
       <c r="D109" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E109">
         <v>1284.9000000000001</v>
@@ -10435,13 +10548,13 @@
         <v>33</v>
       </c>
       <c r="B110" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C110" t="s">
         <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E110">
         <v>2480.6</v>
@@ -10455,13 +10568,13 @@
         <v>33</v>
       </c>
       <c r="B111" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C111" t="s">
         <v>67</v>
       </c>
       <c r="D111" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E111">
         <v>2278.5</v>
@@ -10475,13 +10588,13 @@
         <v>33</v>
       </c>
       <c r="B112" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C112" t="s">
         <v>67</v>
       </c>
       <c r="D112" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E112">
         <v>2278.5</v>
@@ -10495,13 +10608,13 @@
         <v>33</v>
       </c>
       <c r="B113" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C113" t="s">
         <v>67</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E113">
         <v>2278.5</v>
@@ -10515,13 +10628,13 @@
         <v>34</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C114" t="s">
         <v>34</v>
       </c>
       <c r="D114" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E114">
         <v>1070.8</v>
@@ -10535,13 +10648,13 @@
         <v>34</v>
       </c>
       <c r="B115" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
         <v>35</v>
       </c>
       <c r="D115" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E115">
         <v>1639.9</v>
@@ -10555,13 +10668,13 @@
         <v>34</v>
       </c>
       <c r="B116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C116" t="s">
         <v>35</v>
       </c>
       <c r="D116" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E116">
         <v>1682.1</v>
@@ -10575,13 +10688,13 @@
         <v>35</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C117" t="s">
         <v>35</v>
       </c>
       <c r="D117" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E117">
         <v>1370.3</v>
@@ -10595,13 +10708,13 @@
         <v>37</v>
       </c>
       <c r="B118" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C118" t="s">
         <v>37</v>
       </c>
       <c r="D118" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E118">
         <v>1511.6</v>
@@ -10615,13 +10728,13 @@
         <v>37</v>
       </c>
       <c r="B119" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C119" t="s">
         <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E119">
         <v>901.35</v>
@@ -10635,13 +10748,13 @@
         <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C120" t="s">
         <v>67</v>
       </c>
       <c r="D120" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E120">
         <v>3961.5</v>
@@ -10655,13 +10768,13 @@
         <v>41</v>
       </c>
       <c r="B121" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C121" t="s">
         <v>41</v>
       </c>
       <c r="D121" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E121">
         <v>1538.1</v>
@@ -10675,13 +10788,13 @@
         <v>43</v>
       </c>
       <c r="B122" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C122" t="s">
         <v>43</v>
       </c>
       <c r="D122" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E122">
         <v>1293.5</v>
@@ -10695,13 +10808,13 @@
         <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C123" t="s">
         <v>55</v>
       </c>
       <c r="D123" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E123">
         <v>1492</v>
@@ -10715,13 +10828,13 @@
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C124" t="s">
         <v>60</v>
       </c>
       <c r="D124" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E124">
         <v>802.21</v>
@@ -10735,13 +10848,13 @@
         <v>45</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C125" t="s">
         <v>62</v>
       </c>
       <c r="D125" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E125">
         <v>2266</v>
@@ -10755,13 +10868,13 @@
         <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C126" t="s">
         <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E126">
         <v>2900</v>
@@ -10775,13 +10888,13 @@
         <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C127" t="s">
         <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E127">
         <v>1398.1</v>
@@ -10795,13 +10908,13 @@
         <v>63</v>
       </c>
       <c r="B128" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C128" t="s">
         <v>63</v>
       </c>
       <c r="D128" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E128">
         <v>1300</v>
@@ -10815,13 +10928,13 @@
         <v>67</v>
       </c>
       <c r="B129" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C129" t="s">
         <v>67</v>
       </c>
       <c r="D129" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E129">
         <v>4745.7</v>
@@ -10835,13 +10948,13 @@
         <v>67</v>
       </c>
       <c r="B130" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
       </c>
       <c r="D130" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E130">
         <v>2424.1</v>
@@ -10855,13 +10968,13 @@
         <v>67</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C131" t="s">
         <v>69</v>
       </c>
       <c r="D131" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E131">
         <v>2828.1</v>
@@ -10871,10 +10984,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial Black"&amp;11&amp;K737373PÚBLICA</oddFooter>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Arial Black,Regular"PÚBLICA_x000D_&amp;1#&amp;"Arial Black"&amp;11&amp;K737373PÚBLICA</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10883,25 +10996,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="C1:C1048576 A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -10912,13 +11030,13 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2">
         <v>509.37</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -10929,13 +11047,13 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>780.24</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10946,13 +11064,13 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>358.02</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -10963,13 +11081,13 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>339.89</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10980,7 +11098,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>134.58000000000001</v>
@@ -10997,7 +11115,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>90.007999999999996</v>
@@ -11014,7 +11132,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>1569.8</v>
@@ -11031,20 +11149,20 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>241.18</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial Black"&amp;11&amp;K737373PÚBLICA</oddFooter>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Arial Black,Regular"PÚBLICA_x000D_&amp;1#&amp;"Arial Black"&amp;11&amp;K737373PÚBLICA</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11053,28 +11171,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="C1:C1048576 A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -11082,13 +11205,13 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2">
         <v>600</v>
@@ -11102,13 +11225,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>2000.6</v>
@@ -11122,13 +11245,13 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>1364.4</v>
@@ -11142,13 +11265,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>1877.5</v>
@@ -11162,13 +11285,13 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>3313</v>
@@ -11182,13 +11305,13 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>4943.6000000000004</v>
@@ -11202,13 +11325,13 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>629.88</v>
@@ -11222,13 +11345,13 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>2403.8000000000002</v>
@@ -11242,13 +11365,13 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10">
         <v>7020.9</v>
@@ -11262,13 +11385,13 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>2490.6</v>
@@ -11282,13 +11405,13 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <v>1390.1</v>
@@ -11302,13 +11425,13 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>341.13</v>
@@ -11322,13 +11445,13 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <v>2876.5</v>
@@ -11342,13 +11465,13 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <v>5500.7</v>
@@ -11362,13 +11485,13 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>3437.4</v>
@@ -11382,13 +11505,13 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17">
         <v>1210.9000000000001</v>
@@ -11398,10 +11521,462 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial Black"&amp;11&amp;K737373PÚBLICA</oddFooter>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Arial Black,Regular"PÚBLICA_x000D_&amp;1#&amp;"Arial Black"&amp;11&amp;K737373PÚBLICA</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C28" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <f>groups!D2</f>
+        <v>4.0772000000000004</v>
+      </c>
+      <c r="C2" s="9">
+        <f>groups!E2</f>
+        <v>256.77</v>
+      </c>
+      <c r="D2">
+        <f>groups!F2</f>
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <f>groups!D3</f>
+        <v>4.8800999999999997</v>
+      </c>
+      <c r="C3">
+        <f>groups!E3</f>
+        <v>473.39</v>
+      </c>
+      <c r="D3">
+        <f>groups!F3</f>
+        <v>19.870999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>groups!A6</f>
+        <v>aCH</v>
+      </c>
+      <c r="B4">
+        <f>groups!D6</f>
+        <v>4.0578000000000003</v>
+      </c>
+      <c r="C4">
+        <f>groups!E6</f>
+        <v>371.53</v>
+      </c>
+      <c r="D4">
+        <f>groups!F6</f>
+        <v>14.756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="10">
+        <f>groups!D60</f>
+        <v>3.4372507486439399</v>
+      </c>
+      <c r="C5" s="9">
+        <f>groups!E60</f>
+        <v>451.46596028607598</v>
+      </c>
+      <c r="D5" s="10">
+        <f>groups!F60</f>
+        <v>26.633456750374101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="str">
+        <f>A2</f>
+        <v>CH3</v>
+      </c>
+      <c r="C8" t="str">
+        <f>A3</f>
+        <v>CH2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="str">
+        <f>A2</f>
+        <v>CH3</v>
+      </c>
+      <c r="G8" t="str">
+        <f>A3</f>
+        <v>CH2</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>20.48</v>
+      </c>
+      <c r="K8">
+        <v>20.85</v>
+      </c>
+      <c r="L8">
+        <v>21.04</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N13" si="0">L8-J8</f>
+        <v>0.55999999999999872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="10">
+        <f>(B$2+B5)/2</f>
+        <v>3.7572253743219699</v>
+      </c>
+      <c r="C9" s="10">
+        <f>(B5+B3)/2</f>
+        <v>4.1586753743219695</v>
+      </c>
+      <c r="E9" t="str">
+        <f>A4</f>
+        <v>aCH</v>
+      </c>
+      <c r="F9" s="10">
+        <f>(B$2+B4)/2</f>
+        <v>4.0675000000000008</v>
+      </c>
+      <c r="G9" s="10">
+        <f>(B$3+B4)/2</f>
+        <v>4.4689499999999995</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>24.65</v>
+      </c>
+      <c r="K9">
+        <v>25.64</v>
+      </c>
+      <c r="L9">
+        <v>26.06</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1.4100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>28.33</v>
+      </c>
+      <c r="K10">
+        <v>29.94</v>
+      </c>
+      <c r="L10">
+        <v>30.66</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>2.3300000000000018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>46.52</v>
+      </c>
+      <c r="K11">
+        <v>50.1</v>
+      </c>
+      <c r="L11">
+        <v>51.78</v>
+      </c>
+      <c r="M11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>5.259999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="str">
+        <f>A2</f>
+        <v>CH3</v>
+      </c>
+      <c r="C12" t="str">
+        <f>A3</f>
+        <v>CH2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="str">
+        <f>F8</f>
+        <v>CH3</v>
+      </c>
+      <c r="G12" t="str">
+        <f>G8</f>
+        <v>CH2</v>
+      </c>
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
+        <v>78.2</v>
+      </c>
+      <c r="K12">
+        <v>81.05</v>
+      </c>
+      <c r="L12">
+        <v>82.15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>3.9500000000000028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="9">
+        <f>(SQRT(B2^3*B5^3)/B9^3)*(SQRT(C2*C5))</f>
+        <v>336.77725449241007</v>
+      </c>
+      <c r="C13" s="9">
+        <f>(SQRT(B3^3*B5^3)/C9^3)*(SQRT(C3*C5))</f>
+        <v>441.58761860909351</v>
+      </c>
+      <c r="E13" t="str">
+        <f>E9</f>
+        <v>aCH</v>
+      </c>
+      <c r="F13" s="9">
+        <f>(SQRT(B2^3*B4^3)/F9^3)*(SQRT(C2*C4))</f>
+        <v>308.86264019613674</v>
+      </c>
+      <c r="G13" s="9">
+        <f>(SQRT(B3^3*B4^3)/G9^3)*(SQRT(C3*C4))</f>
+        <v>414.06548935066257</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>85.6</v>
+      </c>
+      <c r="K13">
+        <v>86.2</v>
+      </c>
+      <c r="L13">
+        <v>86.68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1.0800000000000125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <f>unlikemie_kl!C5</f>
+        <v>305.81</v>
+      </c>
+      <c r="G14">
+        <f>unlikemie_kl!C42</f>
+        <v>415.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="10">
+        <f>F14/F13</f>
+        <v>0.9901165120061195</v>
+      </c>
+      <c r="G16" s="10">
+        <f>G14/G13</f>
+        <v>1.0038025643040345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="str">
+        <f>B12</f>
+        <v>CH3</v>
+      </c>
+      <c r="C17" t="str">
+        <f>C12</f>
+        <v>CH2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="9">
+        <f>$B$15*B13</f>
+        <v>673.55450898482013</v>
+      </c>
+      <c r="C18" s="9">
+        <f>B15*C13</f>
+        <v>883.17523721818702</v>
+      </c>
+      <c r="E18" s="11">
+        <f>B13*$E$16</f>
+        <v>505.1658817386151</v>
+      </c>
+      <c r="F18" s="11">
+        <f>C13*$E$16</f>
+        <v>662.38142791364021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="str">
+        <f>B17</f>
+        <v>CH3</v>
+      </c>
+      <c r="C23" t="str">
+        <f>C17</f>
+        <v>CH2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="12">
+        <f>B18</f>
+        <v>673.55450898482013</v>
+      </c>
+      <c r="C24" s="12">
+        <f>C18</f>
+        <v>883.17523721818702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="13">
+        <f>unlikemie_kl!C6</f>
+        <v>1061.70154513339</v>
+      </c>
+      <c r="C27">
+        <f>B27/B13</f>
+        <v>3.1525334058963819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="13">
+        <f>unlikemie_kl!C43</f>
+        <v>611.50841401420996</v>
+      </c>
+      <c r="C28">
+        <f>B28/C13</f>
+        <v>1.3847951986070863</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Times New Roman,Regular"&amp;12Página &amp;P_x000D_&amp;1#&amp;"Arial Black"&amp;11&amp;K737373PÚBLICA</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/sgtpy/database/saftgamma_database.xlsx
+++ b/sgtpy/database/saftgamma_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dfs\APPS\CDI\rm-sgtpy\sgtpy\sgtpy\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96F6B1-694F-4735-A30B-14CED77E25BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F4E217-750D-4172-80F9-8AA8593D1E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -440,6 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3451,22 +3452,22 @@
       <c r="G60" s="6">
         <v>6</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
+      <c r="H60" s="16">
+        <v>1</v>
+      </c>
+      <c r="I60" s="16">
+        <v>0</v>
+      </c>
+      <c r="J60" s="16">
+        <v>1</v>
+      </c>
+      <c r="K60" s="16">
+        <v>0</v>
+      </c>
+      <c r="L60" s="16">
+        <v>0</v>
+      </c>
+      <c r="M60" s="16">
         <v>0</v>
       </c>
       <c r="N60">
@@ -3486,7 +3487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
